--- a/builds.xlsx
+++ b/builds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Egyéb\SC2 Co-op strat roulette\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\C#\unit511\sc2-strat-roulette\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4477262D-8386-4FE9-AD35-803FE6B42897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4385E2-DF24-4DC8-B12D-DD8AC801D113}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61860" yWindow="8910" windowWidth="17325" windowHeight="10815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13130" yWindow="2350" windowWidth="17330" windowHeight="10820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 player" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Only swarm queens can be used</t>
   </si>
   <si>
-    <t>Old reliable</t>
-  </si>
-  <si>
     <t>Tickle beams</t>
   </si>
   <si>
@@ -151,12 +148,6 @@
     <t>Only protoss capital ships are allowed</t>
   </si>
   <si>
-    <t>Forbidden machines</t>
-  </si>
-  <si>
-    <t>Both players must only make colossi</t>
-  </si>
-  <si>
     <t>We move unseen</t>
   </si>
   <si>
@@ -200,6 +191,33 @@
   </si>
   <si>
     <t>You are only allowed to make widow mines</t>
+  </si>
+  <si>
+    <t>Protectors of the brood</t>
+  </si>
+  <si>
+    <t>Only shieldguards, energizers and conservators are allowed</t>
+  </si>
+  <si>
+    <t>Olny Kerrigan's and Zagara's queens are allowed</t>
+  </si>
+  <si>
+    <t>Skyscrapers of Destruction</t>
+  </si>
+  <si>
+    <t>Blades of the Nerazim</t>
+  </si>
+  <si>
+    <t>Both player must mass Dark Templar and Void templar</t>
+  </si>
+  <si>
+    <t>Both players must only make colossi (and wrathwalkers)</t>
+  </si>
+  <si>
+    <t>Energy never dies</t>
+  </si>
+  <si>
+    <t>Both players must mass (dark) archons</t>
   </si>
 </sst>
 </file>
@@ -520,7 +538,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -611,7 +629,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -651,58 +669,58 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -712,10 +730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A81CFEC-41A6-4996-8A6A-7811A2FAE753}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -734,66 +752,98 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
